--- a/schnitzcell_preliminaryAnalysis_general3colors.xlsx
+++ b/schnitzcell_preliminaryAnalysis_general3colors.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="98">
   <si>
     <t>folder name</t>
   </si>
@@ -228,9 +228,6 @@
     <t>minDepth</t>
   </si>
   <si>
-    <t>cutCellsWidth</t>
-  </si>
-  <si>
     <t>pos2</t>
   </si>
   <si>
@@ -276,15 +273,9 @@
     <t>D:\ExperimentalData</t>
   </si>
   <si>
-    <t>load 'D:\TrySchnitz\fluo_correction_images\Correction_10Mhz_110801_50ms.mat' flatfield shading replace</t>
-  </si>
-  <si>
     <t>load 'D:\TrySchnitz\fluo_correction_images\PSF_090402_centered.mat' PSF</t>
   </si>
   <si>
-    <t>load 'D:\TrySchnitz\fluo_correction_images\Correction_10Mhz_110801_100ms.mat' flatfield shading replace</t>
-  </si>
-  <si>
     <t>DJK_compileSchnitzImproved_3colors(p2,'quickMode',0);</t>
   </si>
   <si>
@@ -313,6 +304,12 @@
   </si>
   <si>
     <t>check if shift sufficient!</t>
+  </si>
+  <si>
+    <t>neckDepth</t>
+  </si>
+  <si>
+    <t>load 'D:\TrySchnitz\fluo_correction_images\Correction_10Mhz_111206_50ms.mat' flatfield shading replace</t>
   </si>
 </sst>
 </file>
@@ -697,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -719,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -728,7 +725,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="5"/>
       <c r="E3" s="5"/>
@@ -738,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -748,39 +745,39 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -873,10 +870,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B20" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -888,7 +885,7 @@
         <v>47</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -896,7 +893,7 @@
         <v>49</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -904,7 +901,7 @@
         <v>50</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -912,7 +909,7 @@
         <v>51</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -988,32 +985,32 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="str">
-        <f>CONCATENATE("PN_segmoviephase_3colors(p2,'segRange', ", B$5, ",'slices', ", B$13, ",'rangeFiltSize', ", B$14, ",'maskMargin', ", B$15, ",'LoG_Smoothing', ", B$16, ",'minCellArea', ", B$17, ",'GaussianFilter', ", B$18, ",'minDepth', ", B$19, ",'cutCellsWidth', ", B$20, ");")</f>
-        <v>PN_segmoviephase_3colors(p2,'segRange', [6:16:302],'slices', [1 2 3],'rangeFiltSize', 35,'maskMargin', 20,'LoG_Smoothing', 2,'minCellArea', 250,'GaussianFilter', 5,'minDepth', 5,'cutCellsWidth', 4);</v>
+        <f>CONCATENATE("PN_segmoviephase_3colors(p2,'segRange', ", B$5, ",'slices', ", B$13, ",'rangeFiltSize', ", B$14, ",'maskMargin', ", B$15, ",'LoG_Smoothing', ", B$16, ",'minCellArea', ", B$17, ",'GaussianFilter', ", B$18, ",'minDepth', ", B$19, ",'neckDepth', ", B$20, ");")</f>
+        <v>PN_segmoviephase_3colors(p2,'segRange', [6:16:302],'slices', [1 2 3],'rangeFiltSize', 35,'maskMargin', 20,'LoG_Smoothing', 2,'minCellArea', 250,'GaussianFilter', 5,'minDepth', 5,'neckDepth', 2);</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="str">
-        <f>CONCATENATE("PN_copySegFiles(p2,'segRange', ", B$5, ",'slices', ", B$13, ",'rangeFiltSize', ", B$14, ",'maskMargin', ", B$15, ",'LoG_Smoothing', ", B$16, ",'minCellArea', ", B$17, ",'GaussianFilter', ", B$18, ",'minDepth', ", B$19, ",'cutCellsWidth', ", B$20, ");")</f>
-        <v>PN_copySegFiles(p2,'segRange', [6:16:302],'slices', [1 2 3],'rangeFiltSize', 35,'maskMargin', 20,'LoG_Smoothing', 2,'minCellArea', 250,'GaussianFilter', 5,'minDepth', 5,'cutCellsWidth', 4);</v>
+        <f>CONCATENATE("PN_copySegFiles(p2,'segRange', ", B$5, ",'slices', ", B$13, ",'rangeFiltSize', ", B$14, ",'maskMargin', ", B$15, ",'LoG_Smoothing', ", B$16, ",'minCellArea', ", B$17, ",'GaussianFilter', ", B$18, ",'minDepth', ", B$19, ",'neckDepth', ", B$20, ");")</f>
+        <v>PN_copySegFiles(p2,'segRange', [6:16:302],'slices', [1 2 3],'rangeFiltSize', 35,'maskMargin', 20,'LoG_Smoothing', 2,'minCellArea', 250,'GaussianFilter', 5,'minDepth', 5,'neckDepth', 2);</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="str">
-        <f>CONCATENATE("PN_segmoviephase_3colors(p2,'segRange', ", B$5, ",'slices', ", B$13, ",'rangeFiltSize', ", B$14, ",'maskMargin', ", B$15, ",'LoG_Smoothing', 2.5,'minCellArea', ", B$17, ",'GaussianFilter', ", B$18, ",'minDepth', ", B$19, ",'cutCellsWidth', ", B$20, ",'medium','rich');")</f>
-        <v>PN_segmoviephase_3colors(p2,'segRange', [6:16:302],'slices', [1 2 3],'rangeFiltSize', 35,'maskMargin', 20,'LoG_Smoothing', 2.5,'minCellArea', 250,'GaussianFilter', 5,'minDepth', 5,'cutCellsWidth', 4,'medium','rich');</v>
+        <f>CONCATENATE("PN_segmoviephase_3colors(p2,'segRange', ", B$5, ",'slices', ", B$13, ",'rangeFiltSize', ", B$14, ",'maskMargin', ", B$15, ",'LoG_Smoothing', 2.5,'minCellArea', ", B$17, ",'GaussianFilter', ", B$18, ",'minDepth', ", B$19, ",'neckDepth', ", B$20, ",'medium','rich');")</f>
+        <v>PN_segmoviephase_3colors(p2,'segRange', [6:16:302],'slices', [1 2 3],'rangeFiltSize', 35,'maskMargin', 20,'LoG_Smoothing', 2.5,'minCellArea', 250,'GaussianFilter', 5,'minDepth', 5,'neckDepth', 2,'medium','rich');</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="str">
-        <f>CONCATENATE("PN_copySegFiles(p2,'segRange', ", B$5, ",'slices', ", B$13, ",'rangeFiltSize', ", B$14, ",'maskMargin', ", B$15, ",'LoG_Smoothing', 2.5,'minCellArea', ", B$17, ",'GaussianFilter', ", B$18, ",'minDepth', ", B$19, ",'cutCellsWidth', ", B$20, ");")</f>
-        <v>PN_copySegFiles(p2,'segRange', [6:16:302],'slices', [1 2 3],'rangeFiltSize', 35,'maskMargin', 20,'LoG_Smoothing', 2.5,'minCellArea', 250,'GaussianFilter', 5,'minDepth', 5,'cutCellsWidth', 4);</v>
+        <f>CONCATENATE("PN_copySegFiles(p2,'segRange', ", B$5, ",'slices', ", B$13, ",'rangeFiltSize', ", B$14, ",'maskMargin', ", B$15, ",'LoG_Smoothing', 2.5,'minCellArea', ", B$17, ",'GaussianFilter', ", B$18, ",'minDepth', ", B$19, ",'neckDepth', ", B$20, ");")</f>
+        <v>PN_copySegFiles(p2,'segRange', [6:16:302],'slices', [1 2 3],'rangeFiltSize', 35,'maskMargin', 20,'LoG_Smoothing', 2.5,'minCellArea', 250,'GaussianFilter', 5,'minDepth', 5,'neckDepth', 2);</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1072,7 +1069,7 @@
         <v>NW_initializeFluorData(p2,'manualRange', [6:16:302]);</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1084,24 +1081,24 @@
         <v>optimalShift = DJK_getFluorShift_anycolor(p2,'manualRange', [6:16:302],'fluorcolor','fluor1');</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C58" s="4" t="str">
         <f>CONCATENATE("optimalShift = DJK_getFluorShift_anycolor(p2,'manualRange', ", D$5, ",'fluorcolor','fluor1','maxShift',20);")</f>
         <v>optimalShift = DJK_getFluorShift_anycolor(p2,'manualRange', ,'fluorcolor','fluor1','maxShift',20);</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="4" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1118,7 +1115,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1133,12 +1130,12 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1163,31 +1160,31 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B71" s="4"/>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B72" s="4"/>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B73" s="4"/>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B74" s="4"/>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B75" s="4"/>
     </row>
@@ -1202,7 +1199,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:2">
